--- a/Book1 (1) (2).xlsx
+++ b/Book1 (1) (2).xlsx
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
   <si>
     <t>User</t>
   </si>
   <si>
-    <t>Uname</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Suyog</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -107,33 +101,9 @@
     <t>close</t>
   </si>
   <si>
-    <t>InitialAmount</t>
-  </si>
-  <si>
     <t>PayTo</t>
   </si>
   <si>
-    <t>Transaction</t>
-  </si>
-  <si>
-    <t>DashBoard</t>
-  </si>
-  <si>
-    <t>Borrowed</t>
-  </si>
-  <si>
-    <t>Lend</t>
-  </si>
-  <si>
-    <t>TotalBalence</t>
-  </si>
-  <si>
-    <t>(+)6000</t>
-  </si>
-  <si>
-    <t>(-)4000</t>
-  </si>
-  <si>
     <t>UID(PK)</t>
   </si>
   <si>
@@ -177,6 +147,126 @@
   </si>
   <si>
     <t>i3.png</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>ProfilePicture</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>abcksdjnksjdn</t>
+  </si>
+  <si>
+    <t>p1.png</t>
+  </si>
+  <si>
+    <t>p2.png</t>
+  </si>
+  <si>
+    <t>p3.png</t>
+  </si>
+  <si>
+    <t>p4.png</t>
+  </si>
+  <si>
+    <t>p5.png</t>
+  </si>
+  <si>
+    <t>p6.png</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>UPI_ID</t>
+  </si>
+  <si>
+    <t>abc@ptm</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>sdcsdsdv</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DateOfCreation</t>
+  </si>
+  <si>
+    <t>CreatedBy(FK)</t>
+  </si>
+  <si>
+    <t>Dating</t>
+  </si>
+  <si>
+    <t>Saturday Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active </t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>ExpenseId(PK)</t>
+  </si>
+  <si>
+    <t>PaidBy</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>equally</t>
+  </si>
+  <si>
+    <t>unequally</t>
+  </si>
+  <si>
+    <t>TId(PK)</t>
+  </si>
+  <si>
+    <t>ExpenseId(FK)</t>
+  </si>
+  <si>
+    <t>Uid(FK)</t>
+  </si>
+  <si>
+    <t>AmountRemaining</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>AmountPaid</t>
+  </si>
+  <si>
+    <t>EventDescription</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Summer Vacation</t>
+  </si>
+  <si>
+    <t>Birthday Party</t>
+  </si>
+  <si>
+    <t>Transaction_Equally</t>
+  </si>
+  <si>
+    <t>PerToBePaid</t>
   </si>
 </sst>
 </file>
@@ -240,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -267,21 +357,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -404,82 +479,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -490,32 +489,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -526,7 +503,18 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -541,9 +529,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -556,9 +542,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -569,9 +553,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -582,50 +564,52 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -933,7 +917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -941,517 +925,994 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P26"/>
+  <dimension ref="B2:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
     <col min="11" max="11" width="15.109375" customWidth="1"/>
-    <col min="12" max="13" width="11.77734375" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1">
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1"/>
-    <row r="4" spans="2:16" ht="15" thickBot="1">
-      <c r="B4" s="6" t="s">
+    <row r="2" spans="2:11" ht="15" thickBot="1"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="G4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.6">
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="2:16" ht="15.6">
-      <c r="B5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="G5" s="1">
+        <v>1234</v>
+      </c>
+      <c r="H5" s="1">
+        <v>23423423423</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1234</v>
+      </c>
+      <c r="H6" s="1">
+        <v>23423423423</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1234</v>
+      </c>
+      <c r="H7" s="1">
+        <v>23423423423</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1234</v>
+      </c>
+      <c r="H8" s="1">
+        <v>23423423423</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1234</v>
+      </c>
+      <c r="H9" s="1">
+        <v>23423423423</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1234</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
-        <v>6000</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1">
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="27">
-        <v>1234</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="12">
-        <v>4000</v>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="27">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="27">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="8" t="s">
+      <c r="K9" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="15" thickBot="1">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="21">
+        <v>1234</v>
+      </c>
+      <c r="H10" s="9">
+        <v>23423423423</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" thickBot="1"/>
+    <row r="13" spans="2:11">
+      <c r="B13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19">
+        <v>44724</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15" thickBot="1">
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="22">
+        <v>44724</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1"/>
+    <row r="18" spans="2:9">
+      <c r="B18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="5">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="5">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15" thickBot="1">
+      <c r="B26" s="7">
+        <v>7</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15" thickBot="1"/>
+    <row r="29" spans="2:9">
+      <c r="B29" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="1">
+        <v>21000</v>
+      </c>
+      <c r="E31" s="19">
+        <v>44907</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="5">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="19">
+        <v>44878</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15" thickBot="1">
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="9">
+        <v>21000</v>
+      </c>
+      <c r="E33" s="22">
+        <v>44909</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="27">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="15" thickBot="1">
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="G33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="15" thickBot="1"/>
+    <row r="37" spans="2:11" ht="15" thickBot="1">
+      <c r="B37" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="28">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="15" thickBot="1">
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="M13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="21" t="s">
+      <c r="K38" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="5">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="30">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7000</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="8">
+      <c r="K40" s="30">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="5">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>7000</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="30">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="31">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="C42" s="18">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="9">
-        <v>21000</v>
-      </c>
-      <c r="J15" s="35">
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="18">
+        <v>7000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>4000</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="30">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="31">
+        <v>5</v>
+      </c>
+      <c r="C43" s="18">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="18">
+        <v>7000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>3000</v>
+      </c>
+      <c r="H43" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="30">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="31">
+        <v>6</v>
+      </c>
+      <c r="C44" s="18">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="18">
+        <v>3000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>3000</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="30">
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="31">
+        <v>7</v>
+      </c>
+      <c r="C45" s="18">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="18">
+        <v>4000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>4000</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="30">
+        <v>44912</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="5">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>200</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>200</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="30">
         <v>44907</v>
       </c>
-      <c r="K15" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="M15" s="8">
-        <v>1</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="3" t="s">
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="5">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="9">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1">
-      <c r="B16" s="8">
+      <c r="E47" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="F47" s="1">
+        <v>300</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>300</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="30">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="5">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="30">
+        <v>44907</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="31">
+        <v>4</v>
+      </c>
+      <c r="C49" s="18">
         <v>2</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="11">
-        <v>10000</v>
-      </c>
-      <c r="J16" s="36">
-        <v>44878</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="D49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="29">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18">
+        <v>300</v>
+      </c>
+      <c r="G49" s="18">
+        <v>300</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="30">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="15" thickBot="1">
+      <c r="B50" s="32">
+        <v>7</v>
+      </c>
+      <c r="C50" s="21">
         <v>2</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P16" s="9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1">
-      <c r="B17" s="8">
+      <c r="D50" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="40">
-        <v>3</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="38">
-        <v>21000</v>
-      </c>
-      <c r="J17" s="42">
-        <v>44909</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="10">
-        <v>3</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" s="11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1">
-      <c r="B19" s="8">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="8">
+      <c r="E50" s="33">
+        <v>0</v>
+      </c>
+      <c r="F50" s="21">
+        <v>200</v>
+      </c>
+      <c r="G50" s="21">
+        <v>200</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="2:16" ht="15" thickBot="1">
-      <c r="B21" s="10">
-        <v>7</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="21" t="s">
+      <c r="J50" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="G23" s="8">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="15" thickBot="1">
-      <c r="G24" s="10">
-        <v>3</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="12">
-        <v>1000</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="H26" s="1"/>
+      <c r="K50" s="34">
+        <v>44912</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
-    <hyperlink ref="D7" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D9" r:id="rId4"/>
-    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="K5" r:id="rId1"/>
+    <hyperlink ref="K6" r:id="rId2"/>
+    <hyperlink ref="K7" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="F9" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="F6" r:id="rId8"/>
+    <hyperlink ref="F5" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>